--- a/data/cholesterol.xlsx
+++ b/data/cholesterol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\practical_stats_med-r\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AD8C2F-C50D-4CDB-9194-0EF3B4E275B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E005F8-6E14-44E0-9049-7B09AFD1EBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
